--- a/Analysis/Excel/M2-Analysis.xlsx
+++ b/Analysis/Excel/M2-Analysis.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Marcy_Student/Desktop/Marcy-Modules/Mod2/M2-Final-Project/M2-Final-Project--NYC-Stakeholders/Analysis/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C21709B-A1C8-B443-B7A5-15DEAEB5FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D85C236-19C6-0540-8F4E-B3B7AB748284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="760" windowWidth="24460" windowHeight="17240" xr2:uid="{54BCA761-44D9-3A48-9F44-E8700F565AA9}"/>
+    <workbookView xWindow="4180" yWindow="760" windowWidth="24460" windowHeight="17240" activeTab="4" xr2:uid="{54BCA761-44D9-3A48-9F44-E8700F565AA9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bronx" sheetId="1" r:id="rId1"/>
+    <sheet name="Brooklyn" sheetId="2" r:id="rId2"/>
+    <sheet name="Manhattan" sheetId="3" r:id="rId3"/>
+    <sheet name="Queens" sheetId="4" r:id="rId4"/>
+    <sheet name="Staten Island" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,22 +40,544 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>DATASET NYCDBDKSHF</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="173">
+  <si>
+    <t>City Island</t>
+  </si>
+  <si>
+    <t>Bronx</t>
+  </si>
+  <si>
+    <t>Hunts Point</t>
+  </si>
+  <si>
+    <t>Wakefield/Woodlawn</t>
+  </si>
+  <si>
+    <t>Fieldston/North Riverdale/Riverdale</t>
+  </si>
+  <si>
+    <t>Mott Haven/Port Morris</t>
+  </si>
+  <si>
+    <t>Mott Haven</t>
+  </si>
+  <si>
+    <t>Co-op City/Edenwald</t>
+  </si>
+  <si>
+    <t>Country Club/Throgs Neck</t>
+  </si>
+  <si>
+    <t>Concourse/Melrose</t>
+  </si>
+  <si>
+    <t>Charlotte Gardens/Hunts Point</t>
+  </si>
+  <si>
+    <t>Morris Park/Pelham Bay/Westchester Square</t>
+  </si>
+  <si>
+    <t>Charlotte Gardens/Tremont/Van Nest/West Farms</t>
+  </si>
+  <si>
+    <t>Castle Hill/Clason Point/Soundview</t>
+  </si>
+  <si>
+    <t>Soundview</t>
+  </si>
+  <si>
+    <t>Kingsbridge/Marble Hill/Riverdale/Spuyten Duyvil</t>
+  </si>
+  <si>
+    <t>Edenwald/Wakefield</t>
+  </si>
+  <si>
+    <t>Allerton/Baychester/Pelham Gardens/Williamsbridge</t>
+  </si>
+  <si>
+    <t>Belmont/Claremont/Mount Hope/Tremont</t>
+  </si>
+  <si>
+    <t>Concourse/Highbridge</t>
+  </si>
+  <si>
+    <t>Parkchester/Pelham Parkway/Van Nest/Westchester Square</t>
+  </si>
+  <si>
+    <t>Fordham/Kingsbridge/University Heights</t>
+  </si>
+  <si>
+    <t>Morris Heights/Mount Hope/University Heights</t>
+  </si>
+  <si>
+    <t>Belmont/Fordham University/Kingsbridge</t>
+  </si>
+  <si>
+    <t>Claremont/Morrisania</t>
+  </si>
+  <si>
+    <t>Allerton/Norwood/Pelham Parkway/Williamsbridge</t>
+  </si>
+  <si>
+    <t>East New York</t>
+  </si>
+  <si>
+    <t>Brooklyn</t>
+  </si>
+  <si>
+    <t>Sunset Park</t>
+  </si>
+  <si>
+    <t>Greenpoint</t>
+  </si>
+  <si>
+    <t>Carroll Gardens/Cobble Hill/Red Hook</t>
+  </si>
+  <si>
+    <t>11217, 11243</t>
+  </si>
+  <si>
+    <t>Boerum Hill/Park Slope</t>
+  </si>
+  <si>
+    <t>Bath Beach/Dyker Heights</t>
+  </si>
+  <si>
+    <t>Bedford-Stuyvesant (West)/Clinton Hill/Fort Greene</t>
+  </si>
+  <si>
+    <t>Brighton Beach/Coney Island/Seagate</t>
+  </si>
+  <si>
+    <t>Bushwick/East Williamsburg</t>
+  </si>
+  <si>
+    <t>Clinton Hill/Prospect Heights</t>
+  </si>
+  <si>
+    <t>Bedford-Stuyvesant (West)/Crown Heights (West)</t>
+  </si>
+  <si>
+    <t>Crown Heights (West)/Prospect Lefferts Gardens</t>
+  </si>
+  <si>
+    <t>Brooklyn Heights/DUMBO/Downtown Brooklyn</t>
+  </si>
+  <si>
+    <t>Crown Heights (East)</t>
+  </si>
+  <si>
+    <t>Flatlands/Midwood</t>
+  </si>
+  <si>
+    <t>Bay Ridge/Fort Hamilton</t>
+  </si>
+  <si>
+    <t>Gowanus/Park Slope/Windsor Terrace</t>
+  </si>
+  <si>
+    <t>Kensington/Windsor Terrace</t>
+  </si>
+  <si>
+    <t>East Flatbush (North)/East Flatbush (South)</t>
+  </si>
+  <si>
+    <t>Ocean Hill-Brownsville</t>
+  </si>
+  <si>
+    <t>Bedford-Stuyvesant (East)/Ocean Hill-Brownsville</t>
+  </si>
+  <si>
+    <t>Bensonhurst/Mapleton</t>
+  </si>
+  <si>
+    <t>Brighton Beach/Manhattan Beach/Sheepshead Bay</t>
+  </si>
+  <si>
+    <t>Gravesend/Homecrest</t>
+  </si>
+  <si>
+    <t>Gerritsen Beach/Homecrest/Sheepshead Bay</t>
+  </si>
+  <si>
+    <t>Bedford-Stuyvesant (East)/Bushwick</t>
+  </si>
+  <si>
+    <t>Williamsburg (South)</t>
+  </si>
+  <si>
+    <t>Midwood</t>
+  </si>
+  <si>
+    <t>Borough Park</t>
+  </si>
+  <si>
+    <t>Cypress Hills/East New York</t>
+  </si>
+  <si>
+    <t>Bath Beach/Bensonhurst/Gravesend</t>
+  </si>
+  <si>
+    <t>Bergen Beach/Flatlands/Marine Park/Mill Basin</t>
+  </si>
+  <si>
+    <t>Flatbush/Prospect Lefferts Gardens</t>
+  </si>
+  <si>
+    <t>Canarsie</t>
+  </si>
+  <si>
+    <t>11211, 11249</t>
+  </si>
+  <si>
+    <t>East Williamsburg/Williamsburg (North)/Williamsburg (South)</t>
+  </si>
+  <si>
+    <t>Financial District</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Lincoln Square</t>
+  </si>
+  <si>
+    <t>Battery Park City</t>
+  </si>
+  <si>
+    <t>TriBeCa</t>
+  </si>
+  <si>
+    <t>Hell's Kitchen/Midtown Manhattan</t>
+  </si>
+  <si>
+    <t>Roosevelt Island</t>
+  </si>
+  <si>
+    <t>East Midtown/Murray Hill</t>
+  </si>
+  <si>
+    <t>Central Harlem (North)/East Harlem</t>
+  </si>
+  <si>
+    <t>Chinatown/Financial District</t>
+  </si>
+  <si>
+    <t>10001, 10118</t>
+  </si>
+  <si>
+    <t>Chelsea/NoMad/West Chelsea</t>
+  </si>
+  <si>
+    <t>10075, 10162</t>
+  </si>
+  <si>
+    <t>Lenox Hill/Upper East Side</t>
+  </si>
+  <si>
+    <t>Greenwich Village/SoHo</t>
+  </si>
+  <si>
+    <t>Central Harlem (North)/Washington Heights (South)</t>
+  </si>
+  <si>
+    <t>Hudson Square/Little Italy/SoHo/TriBeCa</t>
+  </si>
+  <si>
+    <t>Central Harlem (North)</t>
+  </si>
+  <si>
+    <t>Hudson Square/Meatpacking District/West Village</t>
+  </si>
+  <si>
+    <t>East Midtown</t>
+  </si>
+  <si>
+    <t>Flatiron/Gramercy/Kips Bay</t>
+  </si>
+  <si>
+    <t>East Harlem</t>
+  </si>
+  <si>
+    <t>Central Harlem (South)</t>
+  </si>
+  <si>
+    <t>Inwood/Washington Heights (North)</t>
+  </si>
+  <si>
+    <t>10019, 10020</t>
+  </si>
+  <si>
+    <t>Washington Heights (North)</t>
+  </si>
+  <si>
+    <t>Upper East Side/Yorkville</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Kips Bay/Murray Hill/NoMad</t>
+  </si>
+  <si>
+    <t>East Village/Gramercy/Greenwich Village</t>
+  </si>
+  <si>
+    <t>Alphabet City/East Village/Stuyvesant Town-Cooper Village</t>
+  </si>
+  <si>
+    <t>Upper West Side</t>
+  </si>
+  <si>
+    <t>Washington Heights (North)/Washington Heights (South)</t>
+  </si>
+  <si>
+    <t>Hamilton Heights/West Harlem</t>
+  </si>
+  <si>
+    <t>Washington Heights (South)</t>
+  </si>
+  <si>
+    <t>Central Harlem (South)/Morningside Heights/West Harlem</t>
+  </si>
+  <si>
+    <t>Chinatown/Lower East Side</t>
+  </si>
+  <si>
+    <t>Manhattan Valley/Morningside Heights/Upper West Side</t>
+  </si>
+  <si>
+    <t>Breezy Point</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Long Island City</t>
+  </si>
+  <si>
+    <t>Douglaston-Little Neck</t>
+  </si>
+  <si>
+    <t>Arverne/Broad Channel</t>
+  </si>
+  <si>
+    <t>Fresh Meadows/Hillcrest</t>
+  </si>
+  <si>
+    <t>Queens Village</t>
+  </si>
+  <si>
+    <t>11004, 11005</t>
+  </si>
+  <si>
+    <t>Bellerose/Douglaston-Little Neck</t>
+  </si>
+  <si>
+    <t>Kew Gardens</t>
+  </si>
+  <si>
+    <t>Bayside (North)</t>
+  </si>
+  <si>
+    <t>South Jamaica/South Ozone Park</t>
+  </si>
+  <si>
+    <t>Bellerose</t>
+  </si>
+  <si>
+    <t>Cambria Heights</t>
+  </si>
+  <si>
+    <t>Arverne/Edgemere</t>
+  </si>
+  <si>
+    <t>Belle Harbor-Neponsit/Rockaway Park</t>
+  </si>
+  <si>
+    <t>College Point</t>
+  </si>
+  <si>
+    <t>Bellerose/Hollis Hills/Holliswood</t>
+  </si>
+  <si>
+    <t>Sunnyside</t>
+  </si>
+  <si>
+    <t>Ozone Park</t>
+  </si>
+  <si>
+    <t>Bayside (North)/Bayside (South)</t>
+  </si>
+  <si>
+    <t>Hamilton Beach/Howard Beach/Lindenwood</t>
+  </si>
+  <si>
+    <t>Astoria (South)/Long Island City/Sunnyside</t>
+  </si>
+  <si>
+    <t>Astoria (North)</t>
+  </si>
+  <si>
+    <t>Hollis/Holliswood</t>
+  </si>
+  <si>
+    <t>Rosedale</t>
+  </si>
+  <si>
+    <t>Jackson Heights/Rikers Island</t>
+  </si>
+  <si>
+    <t>Airport/East Elmhurst</t>
+  </si>
+  <si>
+    <t>Astoria (North)/Astoria (South)</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Bayside (South)/Oakland Gardens</t>
+  </si>
+  <si>
+    <t>Auburndale/Murray Hill</t>
+  </si>
+  <si>
+    <t>Maspeth</t>
+  </si>
+  <si>
+    <t>Ditmars Steinway</t>
+  </si>
+  <si>
+    <t>St. Albans</t>
+  </si>
+  <si>
+    <t>Middle Village</t>
+  </si>
+  <si>
+    <t>Astoria (South)</t>
+  </si>
+  <si>
+    <t>Richmond Hill</t>
+  </si>
+  <si>
+    <t>Whitestone</t>
+  </si>
+  <si>
+    <t>Woodhaven</t>
+  </si>
+  <si>
+    <t>Kew Gardens Hills/Pomonok</t>
+  </si>
+  <si>
+    <t>Laurelton/Rosedale</t>
+  </si>
+  <si>
+    <t>Rego Park</t>
+  </si>
+  <si>
+    <t>Auburndale/Fresh Meadows/Pomonok/Utopia</t>
+  </si>
+  <si>
+    <t>South Ozone Park</t>
+  </si>
+  <si>
+    <t>Richmond Hill/South Ozone Park</t>
+  </si>
+  <si>
+    <t>Flushing/Murray Hill</t>
+  </si>
+  <si>
+    <t>Briarwood/Jamaica</t>
+  </si>
+  <si>
+    <t>Jackson Heights</t>
+  </si>
+  <si>
+    <t>Hillcrest/Jamaica Estates/Jamaica Hills</t>
+  </si>
+  <si>
+    <t>Airport/South Jamaica/Springfield Gardens/St. Albans</t>
+  </si>
+  <si>
+    <t>Edgemere/Far Rockaway</t>
+  </si>
+  <si>
+    <t>Forest Hills</t>
+  </si>
+  <si>
+    <t>Flushing/Murray Hill/Queensboro Hill</t>
+  </si>
+  <si>
+    <t>Woodside</t>
+  </si>
+  <si>
+    <t>Elmhurst</t>
+  </si>
+  <si>
+    <t>Glendale/Ridgewood</t>
+  </si>
+  <si>
+    <t>Corona/North Corona</t>
+  </si>
+  <si>
+    <t>Tottenville</t>
+  </si>
+  <si>
+    <t>Staten Island</t>
+  </si>
+  <si>
+    <t>Elm Park</t>
+  </si>
+  <si>
+    <t>Port Richmond/Randall Manor/West Brighton</t>
+  </si>
+  <si>
+    <t>Graniteville/Mariner's Harbor/Port Ivory</t>
+  </si>
+  <si>
+    <t>Great Kills</t>
+  </si>
+  <si>
+    <t>Charleston/Prince's Bay/Woodrow</t>
+  </si>
+  <si>
+    <t>Silver Lake/St. George</t>
+  </si>
+  <si>
+    <t>New Dorp/Todt Hill</t>
+  </si>
+  <si>
+    <t>Arrochar/Midland Beach/Shore Acres/South Beach Ocean Breeze</t>
+  </si>
+  <si>
+    <t>Lighthouse Hill/Midland Beach/New Dorp/Oakwood</t>
+  </si>
+  <si>
+    <t>Annadale/Rossville</t>
+  </si>
+  <si>
+    <t>Bloomfield/Freshkills Park</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -74,8 +600,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,20 +938,3130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C8DD11-5524-EA4F-84DE-CDA036D103F9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>10475</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10475</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>10474</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10474</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>12127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10473</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10473</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>59609</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10472</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10472</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>68796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10471</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10471</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>21896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10470</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10470</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10469</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10469</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>73870</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10468</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10468</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>78647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10467</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10467</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>103732</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10466</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10466</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>72479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10465</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10465</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10464</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10464</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4434</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10463</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10463</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>71360</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10462</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10462</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>76756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10461</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10461</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>50348</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10460</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10460</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>59505</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10459</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10459</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>48351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10458</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10458</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>83960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10457</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10457</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>74554</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10456</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10456</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>94218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10455</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10455</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>42283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>10454</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10454</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>38203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>10453</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10453</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>79606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>10452</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10452</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>76078</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>10451</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10451</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>47798</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E25">
+    <sortCondition descending="1" ref="A1:A25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1FCDA31-075A-1C47-A492-746F27B4552C}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>11239</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11239</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2">
+        <v>13244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11238</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11238</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="2">
+        <v>54540</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11237</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11237</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2">
+        <v>49310</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>11236</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11236</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>11235</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11235</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2">
+        <v>78128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11234</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11234</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2">
+        <v>95666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>11233</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2">
+        <v>76819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>11232</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11232</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>27602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>11231</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11231</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2">
+        <v>37845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11230</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11230</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2">
+        <v>89075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11229</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11229</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2">
+        <v>83615</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11228</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11228</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="2">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11226</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11226</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="2">
+        <v>100277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>11225</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11225</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="2">
+        <v>58882</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>11224</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11224</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="2">
+        <v>46707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>11223</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11223</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2">
+        <v>81789</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>11222</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11222</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2">
+        <v>36492</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>11221</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11221</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="2">
+        <v>83835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>11220</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11220</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="2">
+        <v>95643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11219</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11219</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2">
+        <v>90036</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11218</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11218</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2">
+        <v>74508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>11217</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2">
+        <v>41407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>11216</v>
+      </c>
+      <c r="B23" s="1">
+        <v>11216</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2">
+        <v>56308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>11215</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11215</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="2">
+        <v>70156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>11214</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11214</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2">
+        <v>92946</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>11213</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11213</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="2">
+        <v>66295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11212</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11212</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2">
+        <v>76527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>11211</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2">
+        <v>102624</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>11210</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11210</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="2">
+        <v>67040</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>11209</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11209</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="2">
+        <v>67809</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>11208</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11208</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="2">
+        <v>98660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>11207</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11207</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2">
+        <v>91972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>11206</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11206</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="2">
+        <v>88349</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>11205</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11205</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2">
+        <v>46064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>11204</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11204</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="2">
+        <v>76978</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>11203</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11203</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2">
+        <v>75451</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>11201</v>
+      </c>
+      <c r="B37" s="1">
+        <v>11201</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="2">
+        <v>62823</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E37">
+    <sortCondition descending="1" ref="A1:A37"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9839196-8CE9-D441-A492-89F132640171}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>10282</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10282</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2">
+        <v>5593</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>10280</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10280</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10128</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2">
+        <v>59256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10075</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10069</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10069</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5085</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10065</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10065</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="2">
+        <v>28109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10044</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10044</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="2">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10040</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10040</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44571</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10039</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10039</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2">
+        <v>27726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10038</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10038</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="2">
+        <v>22800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10037</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10037</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="2">
+        <v>21139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10036</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="2">
+        <v>27428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>10035</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10035</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>35743</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>10034</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10034</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="2">
+        <v>42910</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>10033</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10033</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="2">
+        <v>59607</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>10032</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10032</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="2">
+        <v>64264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>10031</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10031</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="2">
+        <v>60254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>10030</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10030</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="2">
+        <v>29882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>10029</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10029</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="2">
+        <v>79597</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>10028</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10028</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="2">
+        <v>47793</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>10027</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10027</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="2">
+        <v>64548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>10026</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10026</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2">
+        <v>39363</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>10025</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10025</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="2">
+        <v>92805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>10024</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10024</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="2">
+        <v>59001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>10023</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10023</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="2">
+        <v>62435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>10022</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10022</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="2">
+        <v>31125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>10021</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10021</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="2">
+        <v>46215</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>10019</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E28" s="2">
+        <v>43703</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>10018</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10018</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="2">
+        <v>9687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>10017</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10017</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" s="2">
+        <v>15801</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>10016</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10016</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="2">
+        <v>51057</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>10014</v>
+      </c>
+      <c r="B32" s="1">
+        <v>10014</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2">
+        <v>30738</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>10013</v>
+      </c>
+      <c r="B33" s="1">
+        <v>10013</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2">
+        <v>28709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>10012</v>
+      </c>
+      <c r="B34" s="1">
+        <v>10012</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" s="2">
+        <v>23411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>10011</v>
+      </c>
+      <c r="B35" s="1">
+        <v>10011</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2">
+        <v>50472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>10010</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10010</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="2">
+        <v>33730</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>10009</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10009</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="2">
+        <v>57925</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>10007</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10007</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>10006</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10006</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="2">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>10005</v>
+      </c>
+      <c r="B40" s="1">
+        <v>10005</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8831</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>10004</v>
+      </c>
+      <c r="B41" s="1">
+        <v>10004</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>10003</v>
+      </c>
+      <c r="B42" s="1">
+        <v>10003</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="2">
+        <v>54682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>10002</v>
+      </c>
+      <c r="B43" s="1">
+        <v>10002</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="2">
+        <v>74993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="2">
+        <v>23072</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E44">
+    <sortCondition descending="1" ref="A1:A44"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE65113F-A4C0-174A-B6A5-54C02B002786}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>11697</v>
+      </c>
+      <c r="B1" s="1">
+        <v>11697</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="2">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>11694</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11694</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="2">
+        <v>21354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11693</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11693</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="2">
+        <v>12919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>11692</v>
+      </c>
+      <c r="B4" s="1">
+        <v>11692</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>11691</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11691</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="2">
+        <v>67094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>11436</v>
+      </c>
+      <c r="B6" s="1">
+        <v>11436</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20077</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>11435</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11435</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" s="2">
+        <v>59296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>11434</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11434</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2">
+        <v>65989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>11433</v>
+      </c>
+      <c r="B9" s="1">
+        <v>11433</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2">
+        <v>36489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>11432</v>
+      </c>
+      <c r="B10" s="1">
+        <v>11432</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="2">
+        <v>62053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>11429</v>
+      </c>
+      <c r="B11" s="1">
+        <v>11429</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2">
+        <v>31780</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11428</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11428</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18929</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11427</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11427</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="2">
+        <v>24037</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>11426</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11426</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="2">
+        <v>20801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>11423</v>
+      </c>
+      <c r="B15" s="1">
+        <v>11423</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="2">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>11422</v>
+      </c>
+      <c r="B16" s="1">
+        <v>11422</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="2">
+        <v>32082</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>11421</v>
+      </c>
+      <c r="B17" s="1">
+        <v>11421</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="2">
+        <v>41002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>11420</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11420</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="2">
+        <v>48489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>11419</v>
+      </c>
+      <c r="B19" s="1">
+        <v>11419</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" s="2">
+        <v>49618</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>11418</v>
+      </c>
+      <c r="B20" s="1">
+        <v>11418</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="2">
+        <v>38517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>11417</v>
+      </c>
+      <c r="B21" s="1">
+        <v>11417</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E21" s="2">
+        <v>31927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>11416</v>
+      </c>
+      <c r="B22" s="1">
+        <v>11416</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2">
+        <v>27125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>11415</v>
+      </c>
+      <c r="B23" s="1">
+        <v>11415</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E23" s="2">
+        <v>19372</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>11414</v>
+      </c>
+      <c r="B24" s="1">
+        <v>11414</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="2">
+        <v>29219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>11413</v>
+      </c>
+      <c r="B25" s="1">
+        <v>11413</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E25" s="2">
+        <v>42443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>11412</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11412</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="2">
+        <v>37458</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>11411</v>
+      </c>
+      <c r="B27" s="1">
+        <v>11411</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E27" s="2">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>11385</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11385</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="2">
+        <v>106717</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>11379</v>
+      </c>
+      <c r="B29" s="1">
+        <v>11379</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="2">
+        <v>37851</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>11378</v>
+      </c>
+      <c r="B30" s="1">
+        <v>11378</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2">
+        <v>37279</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>11377</v>
+      </c>
+      <c r="B31" s="1">
+        <v>11377</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="2">
+        <v>86421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>11375</v>
+      </c>
+      <c r="B32" s="1">
+        <v>11375</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E32" s="2">
+        <v>73488</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>11374</v>
+      </c>
+      <c r="B33" s="1">
+        <v>11374</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2">
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>11373</v>
+      </c>
+      <c r="B34" s="1">
+        <v>11373</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2">
+        <v>93967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>11372</v>
+      </c>
+      <c r="B35" s="1">
+        <v>11372</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="2">
+        <v>61844</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>11370</v>
+      </c>
+      <c r="B36" s="1">
+        <v>11370</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="2">
+        <v>32514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>11369</v>
+      </c>
+      <c r="B37" s="1">
+        <v>11369</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="2">
+        <v>34118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>11368</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11368</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="2">
+        <v>112425</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>11367</v>
+      </c>
+      <c r="B39" s="1">
+        <v>11367</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="2">
+        <v>41824</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>11366</v>
+      </c>
+      <c r="B40" s="1">
+        <v>11366</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="2">
+        <v>14650</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>11365</v>
+      </c>
+      <c r="B41" s="1">
+        <v>11365</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44983</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>11364</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11364</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E42" s="2">
+        <v>36806</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>11363</v>
+      </c>
+      <c r="B43" s="1">
+        <v>11363</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E43" s="2">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>11362</v>
+      </c>
+      <c r="B44" s="1">
+        <v>11362</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="2">
+        <v>18721</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>11361</v>
+      </c>
+      <c r="B45" s="1">
+        <v>11361</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="2">
+        <v>27246</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>11360</v>
+      </c>
+      <c r="B46" s="1">
+        <v>11360</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="2">
+        <v>19621</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>11358</v>
+      </c>
+      <c r="B47" s="1">
+        <v>11358</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E47" s="2">
+        <v>37190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>11357</v>
+      </c>
+      <c r="B48" s="1">
+        <v>11357</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E48" s="2">
+        <v>39902</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>11356</v>
+      </c>
+      <c r="B49" s="1">
+        <v>11356</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="2">
+        <v>23362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>11355</v>
+      </c>
+      <c r="B50" s="1">
+        <v>11355</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="2">
+        <v>80853</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>11354</v>
+      </c>
+      <c r="B51" s="1">
+        <v>11354</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="2">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>11109</v>
+      </c>
+      <c r="B52" s="1">
+        <v>11109</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="2">
+        <v>5981</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>11106</v>
+      </c>
+      <c r="B53" s="1">
+        <v>11106</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="2">
+        <v>38363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>11105</v>
+      </c>
+      <c r="B54" s="1">
+        <v>11105</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="2">
+        <v>37382</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>11104</v>
+      </c>
+      <c r="B55" s="1">
+        <v>11104</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="2">
+        <v>26119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>11103</v>
+      </c>
+      <c r="B56" s="1">
+        <v>11103</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E56" s="2">
+        <v>36140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>11102</v>
+      </c>
+      <c r="B57" s="1">
+        <v>11102</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="2">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>11101</v>
+      </c>
+      <c r="B58" s="1">
+        <v>11101</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="2">
+        <v>30043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>11004</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E59" s="2">
+        <v>19216</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E59">
+    <sortCondition descending="1" ref="A11:A59"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6389CD4C-65A4-2247-BBD4-6D341175424F}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A1" s="1">
+        <v>10314</v>
+      </c>
+      <c r="B1" s="1">
+        <v>10314</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="2">
+        <v>90761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>10312</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10312</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="2">
+        <v>61741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>10310</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10310</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>10309</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10309</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E4" s="2">
+        <v>33531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>10308</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10308</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>10307</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10307</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2">
+        <v>15232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>10306</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10306</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="2">
+        <v>53142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>10305</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10305</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="2">
+        <v>42298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>10304</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10304</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="2">
+        <v>41064</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>10303</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10303</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="2">
+        <v>25947</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10302</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10302</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10301</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10301</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2">
+        <v>38733</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E12">
+    <sortCondition descending="1" ref="A1:A12"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>